--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1630.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1630.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.093586482110052</v>
+        <v>0.9472426772117615</v>
       </c>
       <c r="B1">
-        <v>2.847786027423113</v>
+        <v>3.25377345085144</v>
       </c>
       <c r="C1">
-        <v>4.009185116784712</v>
+        <v>4.142512798309326</v>
       </c>
       <c r="D1">
-        <v>2.379610879010529</v>
+        <v>3.056813478469849</v>
       </c>
       <c r="E1">
-        <v>1.129701957678494</v>
+        <v>1.356643676757812</v>
       </c>
     </row>
   </sheetData>
